--- a/data/output/feature_ranking.xlsx
+++ b/data/output/feature_ranking.xlsx
@@ -460,13 +460,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01169391812084974</v>
+        <v>0.01018481409898353</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.812214546706983</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.08813404790131486</v>
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.034661624637641</v>
+        <v>0.03562648900158472</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.36388853737925</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0.2100178957986335</v>
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01606350305166959</v>
+        <v>0.01486246150858683</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>33.3669691061493</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0.1592269116174757</v>
@@ -517,13 +517,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01955702906711743</v>
+        <v>0.01822540823080043</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51.120266892739</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0.173592070720821</v>
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007308144046057841</v>
+        <v>0.00578670503790768</v>
       </c>
       <c r="C6" t="n">
         <v>1.196234971714217e-28</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.082032994684998</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0.02488881845328585</v>
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00542790519369829</v>
+        <v>0.001570014025416011</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-14.23620028003017</v>
+        <v>-0</v>
       </c>
       <c r="E7" t="n">
         <v>-0.0793480148314987</v>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004536030814893621</v>
+        <v>0.004997444762438796</v>
       </c>
       <c r="C8" t="n">
         <v>6.239021086462418e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>9.099785143272273</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0.005628595459248029</v>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02553926744846891</v>
+        <v>0.02655224528264721</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.09714069450392</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0.1518106195451892</v>
@@ -612,12 +612,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0007383971588064142</v>
+        <v>0.001151467322010102</v>
       </c>
       <c r="C10" t="n">
         <v>1.262843820988429e-35</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
         <v>0.01849024940496873</v>
       </c>
@@ -629,14 +631,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007482148793866994</v>
+        <v>0.007837193047732338</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>35.91262086608624</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0.1118658481940179</v>
       </c>
@@ -644,291 +644,287 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mother_delivery_weight_log</t>
+          <t>newborn_weight</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03573495026290541</v>
+        <v>1.40995109797401</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>39.590468050527</v>
+        <v>0.9999971383020319</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2100178957986335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mother_body_mass_index_log</t>
+          <t>mother_delivery_weight_log</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01432079369805361</v>
+        <v>0.03446640443680504</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0.08813404790131486</v>
+        <v>0.2100178957986335</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>mother_marital_status_0.0</t>
+          <t>mother_body_mass_index_log</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01002314732650333</v>
+        <v>0.01271153103787892</v>
       </c>
       <c r="C14" t="n">
-        <v>1.403458471402378e-20</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.01135357322122218</v>
+        <v>0.08813404790131486</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>mother_marital_status_1.0</t>
+          <t>mother_marital_status_0.0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006480558056982222</v>
+        <v>0.007829931284321745</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.20936946837049</v>
-      </c>
+        <v>1.403458471402378e-20</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.09719457278505295</v>
+        <v>0.01135357322122218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mother_marital_status_2.0</t>
+          <t>mother_marital_status_1.0</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007835849271346618</v>
+        <v>0.007475717209914023</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
-        <v>-16.02280479672143</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.1123370954959466</v>
+        <v>0.09719457278505295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>mother_race_1</t>
+          <t>mother_marital_status_2.0</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01457467095194565</v>
+        <v>0.006466701968748545</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>28.71315341257622</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.1431478958162985</v>
+        <v>-0.1123370954959466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>mother_race_2</t>
+          <t>mother_race_1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01074722280152018</v>
+        <v>0.009966941872590951</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>-35.57184188644316</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.1358757749521234</v>
+        <v>0.1431478958162985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>mother_race_3</t>
+          <t>mother_race_2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0001277424035142083</v>
+        <v>0.009406554131199396</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001527561538643996</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.005187786770678965</v>
+        <v>-0.1358757749521234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mother_race_4</t>
+          <t>mother_race_3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005349510330155294</v>
+        <v>0.0004346502413636877</v>
       </c>
       <c r="C20" t="n">
-        <v>1.131137239693873e-172</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-2.568131740069443</v>
-      </c>
+        <v>0.0001527561538643996</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>-0.05153620706218735</v>
+        <v>0.005187786770678965</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>mother_race_5</t>
+          <t>mother_race_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.002943315918062073</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8768960630002161</v>
+        <v>1.131137239662238e-172</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-6.792093617143902e-05</v>
+        <v>-0.05153620706218735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>mother_race_6</t>
+          <t>mother_race_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0002518801856661312</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.051171052237897e-07</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.8768960630002161</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
       <c r="E22" t="n">
-        <v>-0.007615734619527246</v>
+        <v>-6.792093617143902e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>father_education_Higher education</t>
+          <t>mother_race_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002282097964390495</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.051171052018431e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>10.07671174134535</v>
+        <v>-0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07005052845476029</v>
+        <v>-0.007615734619527246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>father_education_Medium education</t>
+          <t>father_education_Higher education</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001129646845134946</v>
+        <v>0.00427047866675867</v>
       </c>
       <c r="C24" t="n">
-        <v>6.78473605751746e-17</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" t="n">
-        <v>0.01195332131806816</v>
+        <v>0.07005052845476029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>father_education_Primary education</t>
+          <t>father_education_Medium education</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0003853161789684201</v>
+        <v>0.001568517546096437</v>
       </c>
       <c r="C25" t="n">
-        <v>4.62095207491784e-27</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>6.78473605751746e-17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" t="n">
-        <v>-0.01947614386742845</v>
+        <v>0.01195332131806816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>father_education_Professional education</t>
+          <t>father_education_Primary education</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.002972642670172831</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.62095207491784e-27</v>
       </c>
       <c r="D26" t="n">
-        <v>-11.62386993329768</v>
+        <v>-0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.07967039852222983</v>
+        <v>-0.01947614386742845</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>prenatal_care_0</t>
+          <t>father_education_Professional education</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.002937257372017665</v>
+        <v>0.00128085188027427</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.779516455016763</v>
+        <v>-0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.05922534992992017</v>
+        <v>-0.07967039852222983</v>
       </c>
     </row>
     <row r="28">
@@ -938,13 +934,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.002886116269991579</v>
+        <v>0.001822465736671663</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.448201996957075</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0.05663745314066906</v>
@@ -957,12 +953,14 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0006115352575459809</v>
+        <v>0.00091316159657584</v>
       </c>
       <c r="C29" t="n">
         <v>2.582787349500171e-58</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>-0</v>
+      </c>
       <c r="E29" t="n">
         <v>-0.02741780548679726</v>
       </c>
@@ -974,12 +972,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002173628362934554</v>
+        <v>0.002015781436949915</v>
       </c>
       <c r="C30" t="n">
         <v>0.05085266990803954</v>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>-0</v>
+      </c>
       <c r="E30" t="n">
         <v>-0.01200019160142826</v>
       </c>
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003381074257522432</v>
+        <v>0.002776059257546759</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-20.43490888140489</v>
+        <v>-0</v>
       </c>
       <c r="E31" t="n">
         <v>-0.07882766593408375</v>

--- a/data/output/feature_ranking.xlsx
+++ b/data/output/feature_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,8 +444,10 @@
           <t>sign_fscore</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>0</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>boruta_rank</t>
+        </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
@@ -460,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01018481409898353</v>
+        <v>0.0108172940336182</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08813404790131486</v>
+        <v>0.09048704023777679</v>
       </c>
     </row>
     <row r="3">
@@ -479,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03562648900158472</v>
+        <v>0.03762011741288784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2100178957986335</v>
+        <v>0.2111104509103737</v>
       </c>
     </row>
     <row r="4">
@@ -498,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01486246150858683</v>
+        <v>0.01693125947654917</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1592269116174757</v>
+        <v>0.1580144638178445</v>
       </c>
     </row>
     <row r="5">
@@ -517,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01822540823080043</v>
+        <v>0.02136136964855773</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.173592070720821</v>
+        <v>0.1704643983125488</v>
       </c>
     </row>
     <row r="6">
@@ -536,128 +538,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00578670503790768</v>
+        <v>0.004791461973989719</v>
       </c>
       <c r="C6" t="n">
-        <v>1.196234971714217e-28</v>
+        <v>4.845726961981984e-38</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02488881845328585</v>
+        <v>0.02568979533641264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>cigarettes_before_pregnancy</t>
+          <t>father_education</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001570014025416011</v>
+        <v>0.007097557783815489</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0793480148314987</v>
+        <v>0.1002185790130125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>prenatal_care_month</t>
+          <t>cigarettes_before_pregnancy</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004997444762438796</v>
+        <v>0.003369473760760133</v>
       </c>
       <c r="C8" t="n">
-        <v>6.239021086462418e-11</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.005628595459248029</v>
+        <v>-0.07926084640117441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>number_prenatal_visits</t>
+          <t>prenatal_care_month</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02655224528264721</v>
+        <v>0.00540545966834971</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.491900399834223e-35</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1518106195451892</v>
+        <v>0.007138045534418784</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>previous_cesarean</t>
+          <t>number_prenatal_visits</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001151467322010102</v>
+        <v>0.02387271635970567</v>
       </c>
       <c r="C10" t="n">
-        <v>1.262843820988429e-35</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01849024940496873</v>
+        <v>0.1499881204905279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>newborn_gender</t>
+          <t>previous_cesarean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007837193047732338</v>
+        <v>0.001149567718283784</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>3.354503542290251e-39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.1118658481940179</v>
+        <v>0.01923357341516257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>newborn_weight</t>
+          <t>newborn_gender</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.40995109797401</v>
+        <v>0.008175383351162413</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999971383020319</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.1121837080421653</v>
       </c>
     </row>
     <row r="13">
@@ -667,14 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03446640443680504</v>
+        <v>0.03530710313368335</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" t="n">
-        <v>0.2100178957986335</v>
+        <v>0.2111104509103737</v>
       </c>
     </row>
     <row r="14">
@@ -684,323 +690,168 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01271153103787892</v>
+        <v>0.01314156032995228</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" t="n">
-        <v>0.08813404790131486</v>
+        <v>0.09048704023777679</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>mother_marital_status_0.0</t>
+          <t>mother_marital_status_married</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007829931284321745</v>
+        <v>0.007408504298254126</v>
       </c>
       <c r="C15" t="n">
-        <v>1.403458471402378e-20</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" t="n">
-        <v>0.01135357322122218</v>
+        <v>0.09545003247756619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mother_marital_status_1.0</t>
+          <t>mother_marital_status_not_married</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007475717209914023</v>
+        <v>0.005044653304844271</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" t="n">
-        <v>0.09719457278505295</v>
+        <v>-0.1098081216444217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>mother_marital_status_2.0</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006466701968748545</v>
+        <v>0.01162520897442887</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" t="n">
-        <v>-0.1123370954959466</v>
+        <v>-0.1351886895603486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>mother_race_1</t>
+          <t>AIAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.009966941872590951</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>6.773656823240389e-09</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
       <c r="E18" t="n">
-        <v>0.1431478958162985</v>
+        <v>0.00844661016226622</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>mother_race_2</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.009406554131199396</v>
+        <v>0.002784341763076625</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>1.302392290381608e-189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
       <c r="E19" t="n">
-        <v>-0.1358757749521234</v>
+        <v>-0.05330089823332931</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mother_race_3</t>
+          <t>NHOPI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004346502413636877</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001527561538643996</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.2934688271407734</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
       <c r="E20" t="n">
-        <v>0.005187786770678965</v>
+        <v>0.0004966908477061889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>mother_race_4</t>
+          <t>&gt;1_race</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002943315918062073</v>
+        <v>0.0003701136906602009</v>
       </c>
       <c r="C21" t="n">
-        <v>1.131137239662238e-172</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>2.967512215012878e-05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
       <c r="E21" t="n">
-        <v>-0.05153620706218735</v>
+        <v>-0.006625944253594839</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>mother_race_5</t>
+          <t>smoker</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.004565277130873735</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8768960630002161</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.792093617143902e-05</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>mother_race_6</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9.051171052018431e-07</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.007615734619527246</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>father_education_Higher education</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.00427047866675867</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.07005052845476029</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>father_education_Medium education</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.001568517546096437</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6.78473605751746e-17</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.01195332131806816</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>father_education_Primary education</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.62095207491784e-27</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.01947614386742845</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>father_education_Professional education</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.00128085188027427</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.07967039852222983</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>prenatal_care_1</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.001822465736671663</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.05663745314066906</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>prenatal_care_2</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.00091316159657584</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.582787349500171e-58</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.02741780548679726</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>prenatal_care_3</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.002015781436949915</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.05085266990803954</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.01200019160142826</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>smoker</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.002776059257546759</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.07882766593408375</v>
+        <v>-0.07876094937993693</v>
       </c>
     </row>
   </sheetData>
